--- a/Code/Results/Cases/Case_4_81/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_81/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.08500633250324</v>
+        <v>13.0388964089197</v>
       </c>
       <c r="C2">
-        <v>7.609322460320311</v>
+        <v>5.403934544651637</v>
       </c>
       <c r="D2">
-        <v>12.14794041307297</v>
+        <v>15.05347885465967</v>
       </c>
       <c r="E2">
-        <v>13.14449933822982</v>
+        <v>16.47815336791211</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.11000020981222</v>
+        <v>3.688789165428493</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.903904684162427</v>
+        <v>9.414973690434911</v>
       </c>
       <c r="K2">
-        <v>12.2354195589897</v>
+        <v>12.50214419229085</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.27985249328783</v>
+        <v>20.54798110000768</v>
       </c>
       <c r="O2">
-        <v>19.92367817513378</v>
+        <v>29.41185983877596</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.13564465122518</v>
+        <v>12.81976026308304</v>
       </c>
       <c r="C3">
-        <v>7.115927974503065</v>
+        <v>5.238687378505033</v>
       </c>
       <c r="D3">
-        <v>11.64350317619661</v>
+        <v>14.99378611203812</v>
       </c>
       <c r="E3">
-        <v>12.60876429668373</v>
+        <v>16.41881176756571</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.115983230788965</v>
+        <v>3.691032338964267</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.81460021420563</v>
+        <v>9.423133020389288</v>
       </c>
       <c r="K3">
-        <v>11.4208351992434</v>
+        <v>12.3581250483019</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.50422192654817</v>
+        <v>20.61290211705236</v>
       </c>
       <c r="O3">
-        <v>19.77657537377414</v>
+        <v>29.47022467434093</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.57517730303831</v>
+        <v>12.68631091763931</v>
       </c>
       <c r="C4">
-        <v>6.796155162358781</v>
+        <v>5.135544169415604</v>
       </c>
       <c r="D4">
-        <v>11.33073992031386</v>
+        <v>14.96043446935483</v>
       </c>
       <c r="E4">
-        <v>12.27726157154788</v>
+        <v>16.38601898433948</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.119766801914359</v>
+        <v>3.692482708844998</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.762349816267346</v>
+        <v>9.429560351096331</v>
       </c>
       <c r="K4">
-        <v>10.8923803803893</v>
+        <v>12.27144249917762</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.64494094626755</v>
+        <v>20.65461200133004</v>
       </c>
       <c r="O4">
-        <v>19.70170540698254</v>
+        <v>29.51190205620972</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.34073499299529</v>
+        <v>12.63228010592196</v>
       </c>
       <c r="C5">
-        <v>6.66159829289749</v>
+        <v>5.093157151883576</v>
       </c>
       <c r="D5">
-        <v>11.20270370306959</v>
+        <v>14.9476833672066</v>
       </c>
       <c r="E5">
-        <v>12.14171810014611</v>
+        <v>16.37358143771291</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.121337073534851</v>
+        <v>3.693092175999174</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.741711662892035</v>
+        <v>9.432536147212476</v>
       </c>
       <c r="K5">
-        <v>10.66987287671128</v>
+        <v>12.2365969266192</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.7030540051144</v>
+        <v>20.67207518612818</v>
       </c>
       <c r="O5">
-        <v>19.67496271097412</v>
+        <v>29.53035192033441</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.30144526512037</v>
+        <v>12.62333168775105</v>
       </c>
       <c r="C6">
-        <v>6.638998366517226</v>
+        <v>5.086099417470838</v>
       </c>
       <c r="D6">
-        <v>11.18141388642717</v>
+        <v>14.9456170642981</v>
       </c>
       <c r="E6">
-        <v>12.11918978459546</v>
+        <v>16.37157236794157</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.121599555551685</v>
+        <v>3.693194492429137</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.738324349074317</v>
+        <v>9.433051817594038</v>
       </c>
       <c r="K6">
-        <v>10.63249219384925</v>
+        <v>12.2308408625739</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.71275080933947</v>
+        <v>20.67500312358938</v>
       </c>
       <c r="O6">
-        <v>19.67074609396915</v>
+        <v>29.53350396130492</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.57203982108788</v>
+        <v>12.68558072066952</v>
       </c>
       <c r="C7">
-        <v>6.79435769396154</v>
+        <v>5.134973869593671</v>
       </c>
       <c r="D7">
-        <v>11.32901528393493</v>
+        <v>14.96025908991257</v>
       </c>
       <c r="E7">
-        <v>12.27543515425874</v>
+        <v>16.38584748684674</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.119787863003062</v>
+        <v>3.692490853631954</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.762068828138327</v>
+        <v>9.429599039666412</v>
       </c>
       <c r="K7">
-        <v>10.88940860180188</v>
+        <v>12.27097057187835</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.64572153261452</v>
+        <v>20.65484562708847</v>
       </c>
       <c r="O7">
-        <v>19.7013296513593</v>
+        <v>29.51214494573246</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.7570350763754</v>
+        <v>12.96315402824819</v>
       </c>
       <c r="C8">
-        <v>7.442681457388228</v>
+        <v>5.347345103725434</v>
       </c>
       <c r="D8">
-        <v>11.97474276959567</v>
+        <v>15.03221830937626</v>
       </c>
       <c r="E8">
-        <v>12.96041651841112</v>
+        <v>16.45694236902307</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.112040814283526</v>
+        <v>3.689547485881892</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.872579615446315</v>
+        <v>9.417492955882162</v>
       </c>
       <c r="K8">
-        <v>11.96039705875291</v>
+        <v>12.45214786814057</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.35661758431636</v>
+        <v>20.56998310301365</v>
       </c>
       <c r="O8">
-        <v>19.86968077207614</v>
+        <v>29.43077009161536</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.99559337904067</v>
+        <v>13.5129861641098</v>
       </c>
       <c r="C9">
-        <v>8.58148451236395</v>
+        <v>5.747753224178631</v>
       </c>
       <c r="D9">
-        <v>13.21008197943414</v>
+        <v>15.19901955894092</v>
       </c>
       <c r="E9">
-        <v>14.27614294535616</v>
+        <v>16.62479213252428</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.097683903902194</v>
+        <v>3.684352447365993</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.109540943991789</v>
+        <v>9.404990297428686</v>
       </c>
       <c r="K9">
-        <v>13.83819844241361</v>
+        <v>12.81952739221019</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.81190646461252</v>
+        <v>20.41816941724725</v>
       </c>
       <c r="O9">
-        <v>20.32742683667222</v>
+        <v>29.31765779476827</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.48159347257542</v>
+        <v>13.91606944158619</v>
       </c>
       <c r="C10">
-        <v>9.338977146233876</v>
+        <v>6.028861550109064</v>
       </c>
       <c r="D10">
-        <v>14.09128876629423</v>
+        <v>15.33650175827753</v>
       </c>
       <c r="E10">
-        <v>15.21804671917274</v>
+        <v>16.76474044703171</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.087589122877448</v>
+        <v>3.680883509484763</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.29564806577602</v>
+        <v>9.402639090406312</v>
       </c>
       <c r="K10">
-        <v>15.0854379567984</v>
+        <v>13.09442544838378</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.4234512303916</v>
+        <v>20.31544416813565</v>
       </c>
       <c r="O10">
-        <v>20.74801639444877</v>
+        <v>29.26302588563649</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.12409480118163</v>
+        <v>14.09839038665995</v>
       </c>
       <c r="C11">
-        <v>9.666811983670854</v>
+        <v>6.153311395499269</v>
       </c>
       <c r="D11">
-        <v>14.48529569764803</v>
+        <v>15.40211415186125</v>
       </c>
       <c r="E11">
-        <v>15.63995184743213</v>
+        <v>16.83184650885634</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.083081842615381</v>
+        <v>3.679380117630209</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.382855940062438</v>
+        <v>9.403048445766492</v>
       </c>
       <c r="K11">
-        <v>15.62485830152019</v>
+        <v>13.2200580795825</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.24886384663022</v>
+        <v>20.27060626156308</v>
       </c>
       <c r="O11">
-        <v>20.95894757028707</v>
+        <v>29.2443801361135</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.36265841137778</v>
+        <v>14.16721208341321</v>
       </c>
       <c r="C12">
-        <v>9.788584555909882</v>
+        <v>6.199901307682707</v>
       </c>
       <c r="D12">
-        <v>14.6334421022643</v>
+        <v>15.42738544734517</v>
       </c>
       <c r="E12">
-        <v>15.79869987806696</v>
+        <v>16.85773704987025</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.081386072689332</v>
+        <v>3.678821494189046</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.416240866428294</v>
+        <v>9.403415523662655</v>
       </c>
       <c r="K12">
-        <v>15.82516958303899</v>
+        <v>13.26767328403185</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.18302126160353</v>
+        <v>20.25389802933725</v>
       </c>
       <c r="O12">
-        <v>21.04174074348203</v>
+        <v>29.23821346537879</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.31148889481729</v>
+        <v>14.15240092220057</v>
       </c>
       <c r="C13">
-        <v>9.762463483614772</v>
+        <v>6.189891845677827</v>
       </c>
       <c r="D13">
-        <v>14.60158395206404</v>
+        <v>15.42192417370581</v>
       </c>
       <c r="E13">
-        <v>15.76455687169162</v>
+        <v>16.85214002394497</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.081750815657472</v>
+        <v>3.678941329695399</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.409034824669425</v>
+        <v>9.403327045875015</v>
       </c>
       <c r="K13">
-        <v>15.78220381550925</v>
+        <v>13.25741735086508</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.19719022132402</v>
+        <v>20.25748441634317</v>
       </c>
       <c r="O13">
-        <v>21.02377841029389</v>
+        <v>29.2395017829113</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.14381606257178</v>
+        <v>14.10405716958712</v>
       </c>
       <c r="C14">
-        <v>9.676877584003694</v>
+        <v>6.157155362434084</v>
       </c>
       <c r="D14">
-        <v>14.49750526901547</v>
+        <v>15.40418480885507</v>
       </c>
       <c r="E14">
-        <v>15.65303289325568</v>
+        <v>16.83396703619144</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.082942116364112</v>
+        <v>3.679333945648304</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.385595322565858</v>
+        <v>9.40307439919853</v>
       </c>
       <c r="K14">
-        <v>15.64141692131775</v>
+        <v>13.22397483360215</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.24344173830431</v>
+        <v>20.26922624265888</v>
       </c>
       <c r="O14">
-        <v>20.96569997028516</v>
+        <v>29.24385487413901</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.04049700511874</v>
+        <v>14.07441466488782</v>
       </c>
       <c r="C15">
-        <v>9.6241461046416</v>
+        <v>6.137032230558239</v>
       </c>
       <c r="D15">
-        <v>14.43361490964391</v>
+        <v>15.39337382623182</v>
       </c>
       <c r="E15">
-        <v>15.58458682483542</v>
+        <v>16.82289743400545</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.083673223923197</v>
+        <v>3.679575823263161</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.371284865313854</v>
+        <v>9.402947243285418</v>
       </c>
       <c r="K15">
-        <v>15.55466774435787</v>
+        <v>13.20349439528282</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.2718061908373</v>
+        <v>20.27645369525113</v>
       </c>
       <c r="O15">
-        <v>20.93050818125992</v>
+        <v>29.24663774323857</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.43893719501373</v>
+        <v>13.90412735348505</v>
       </c>
       <c r="C16">
-        <v>9.317218401142449</v>
+        <v>6.020655649409236</v>
       </c>
       <c r="D16">
-        <v>14.0653950925703</v>
+        <v>15.33227425491362</v>
       </c>
       <c r="E16">
-        <v>15.19033522096778</v>
+        <v>16.76042282629344</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.087885294592803</v>
+        <v>3.680983256980906</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.289999611971471</v>
+        <v>9.402642048358176</v>
       </c>
       <c r="K16">
-        <v>15.04962845189381</v>
+        <v>13.08622307975158</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.43490065983975</v>
+        <v>20.31841240597484</v>
       </c>
       <c r="O16">
-        <v>20.73463454472121</v>
+        <v>29.26436946365145</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.06137676581652</v>
+        <v>13.79934411755806</v>
       </c>
       <c r="C17">
-        <v>9.124663141060735</v>
+        <v>5.94835193758567</v>
       </c>
       <c r="D17">
-        <v>13.83769178198435</v>
+        <v>15.29556685987328</v>
       </c>
       <c r="E17">
-        <v>14.94673232752343</v>
+        <v>16.72296726121249</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.090490201811679</v>
+        <v>3.681865750840576</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.240782030198363</v>
+        <v>9.402833209819777</v>
       </c>
       <c r="K17">
-        <v>14.73268775385372</v>
+        <v>13.01439901589517</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.53547293954749</v>
+        <v>20.34463652505795</v>
       </c>
       <c r="O17">
-        <v>20.61956460740264</v>
+        <v>29.27683818079619</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.84105708087166</v>
+        <v>13.73898129862018</v>
       </c>
       <c r="C18">
-        <v>9.012331165618036</v>
+        <v>5.906444426847563</v>
       </c>
       <c r="D18">
-        <v>13.70608012639051</v>
+        <v>15.27474382611529</v>
       </c>
       <c r="E18">
-        <v>14.80600279785407</v>
+        <v>16.70174889283334</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.091996540345713</v>
+        <v>3.682380367234198</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.2127133281617</v>
+        <v>9.403082406803771</v>
       </c>
       <c r="K18">
-        <v>14.54775647247634</v>
+        <v>12.97314482986403</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.59352149514069</v>
+        <v>20.35989813041802</v>
       </c>
       <c r="O18">
-        <v>20.55521881072084</v>
+        <v>29.28459397720859</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.76591611821961</v>
+        <v>13.7185294512712</v>
       </c>
       <c r="C19">
-        <v>8.974025158109823</v>
+        <v>5.892201652620644</v>
       </c>
       <c r="D19">
-        <v>13.66141073559211</v>
+        <v>15.26774381200776</v>
       </c>
       <c r="E19">
-        <v>14.75825106348208</v>
+        <v>16.69462102914822</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.092507979972467</v>
+        <v>3.682555816484606</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.203251135410447</v>
+        <v>9.403190713173052</v>
       </c>
       <c r="K19">
-        <v>14.48468739445591</v>
+        <v>12.95918798898168</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.61321148791363</v>
+        <v>20.36509608823854</v>
       </c>
       <c r="O19">
-        <v>20.53374528105868</v>
+        <v>29.28732022634934</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.10189489662701</v>
+        <v>13.81050873965326</v>
       </c>
       <c r="C20">
-        <v>9.145324165891699</v>
+        <v>5.956082274604518</v>
       </c>
       <c r="D20">
-        <v>13.86199827488557</v>
+        <v>15.29944451733073</v>
       </c>
       <c r="E20">
-        <v>14.97272858320823</v>
+        <v>16.7269209396035</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.090212078490522</v>
+        <v>3.681771080762958</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.245996532990268</v>
+        <v>9.402798453009527</v>
       </c>
       <c r="K20">
-        <v>14.76669892991317</v>
+        <v>13.02203920936089</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.52474618883476</v>
+        <v>20.34182649000482</v>
       </c>
       <c r="O20">
-        <v>20.63162290264291</v>
+        <v>29.27545039781536</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.19319357621344</v>
+        <v>14.11826338955882</v>
       </c>
       <c r="C21">
-        <v>9.702080278003381</v>
+        <v>6.166785747829598</v>
       </c>
       <c r="D21">
-        <v>14.5281047972682</v>
+        <v>15.4093838813155</v>
       </c>
       <c r="E21">
-        <v>15.68581830044398</v>
+        <v>16.83929201795972</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.082591912613778</v>
+        <v>3.679218335457145</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.392470302337967</v>
+        <v>9.403142857571796</v>
       </c>
       <c r="K21">
-        <v>15.68287626163857</v>
+        <v>13.23379693849243</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.22984951374721</v>
+        <v>20.26577004076125</v>
       </c>
       <c r="O21">
-        <v>20.98267903890073</v>
+        <v>29.24255199011388</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.87884469085228</v>
+        <v>14.31809075410891</v>
       </c>
       <c r="C22">
-        <v>10.05215047586469</v>
+        <v>6.301348195969967</v>
       </c>
       <c r="D22">
-        <v>14.95727393240855</v>
+        <v>15.48370654354338</v>
       </c>
       <c r="E22">
-        <v>16.14590969087583</v>
+        <v>16.91551653402834</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.077675431304666</v>
+        <v>3.677612185409945</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.490303559198947</v>
+        <v>9.404603671214721</v>
       </c>
       <c r="K22">
-        <v>16.25862839639022</v>
+        <v>13.37241179079348</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.03867272639459</v>
+        <v>20.21764127464197</v>
       </c>
       <c r="O22">
-        <v>21.22916838416675</v>
+        <v>29.22626278561224</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.51539611486982</v>
+        <v>14.21158088884889</v>
       </c>
       <c r="C23">
-        <v>9.866560953400267</v>
+        <v>6.229830648636881</v>
       </c>
       <c r="D23">
-        <v>14.7288004905974</v>
+        <v>15.44381862672211</v>
       </c>
       <c r="E23">
-        <v>15.90091361241906</v>
+        <v>16.87458492886904</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.080294027409177</v>
+        <v>3.678463743323444</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.43789682211357</v>
+        <v>9.403711162007014</v>
       </c>
       <c r="K23">
-        <v>15.95342283651364</v>
+        <v>13.29842426939172</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.14057725118024</v>
+        <v>20.24318446287247</v>
       </c>
       <c r="O23">
-        <v>21.09601964300506</v>
+        <v>29.23447933070577</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.08358679463078</v>
+        <v>13.80546158725133</v>
       </c>
       <c r="C24">
-        <v>9.135988394558039</v>
+        <v>5.952588442232189</v>
       </c>
       <c r="D24">
-        <v>13.85101149049435</v>
+        <v>15.29769055333078</v>
       </c>
       <c r="E24">
-        <v>14.96097778506901</v>
+        <v>16.72513249816641</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.090337790725144</v>
+        <v>3.681813858488905</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.243638348378371</v>
+        <v>9.402813732625894</v>
       </c>
       <c r="K24">
-        <v>14.75133094754304</v>
+        <v>13.01858495493079</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.52959503934623</v>
+        <v>20.34309633042793</v>
       </c>
       <c r="O24">
-        <v>20.62616571888297</v>
+        <v>29.27607598495673</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.4181713214861</v>
+        <v>13.3640960519329</v>
       </c>
       <c r="C25">
-        <v>8.287445970247315</v>
+        <v>5.641509347252727</v>
       </c>
       <c r="D25">
-        <v>12.88006455916384</v>
+        <v>15.15121646178993</v>
       </c>
       <c r="E25">
-        <v>13.92406307663088</v>
+        <v>16.57640901111815</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.101483976872459</v>
+        <v>3.685696480113529</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.043302702037092</v>
+        <v>9.407170885203021</v>
       </c>
       <c r="K25">
-        <v>13.3536963504707</v>
+        <v>12.71909287869947</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.95706708302871</v>
+        <v>20.45768511723422</v>
       </c>
       <c r="O25">
-        <v>20.18924294144526</v>
+        <v>29.3432671260963</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_81/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_81/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.0388964089197</v>
+        <v>14.08500633250325</v>
       </c>
       <c r="C2">
-        <v>5.403934544651637</v>
+        <v>7.609322460320313</v>
       </c>
       <c r="D2">
-        <v>15.05347885465967</v>
+        <v>12.14794041307301</v>
       </c>
       <c r="E2">
-        <v>16.47815336791211</v>
+        <v>13.14449933822982</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.688789165428493</v>
+        <v>2.110000209812219</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.414973690434911</v>
+        <v>5.903904684162431</v>
       </c>
       <c r="K2">
-        <v>12.50214419229085</v>
+        <v>12.2354195589897</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.54798110000768</v>
+        <v>13.27985249328777</v>
       </c>
       <c r="O2">
-        <v>29.41185983877596</v>
+        <v>19.92367817513372</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.81976026308304</v>
+        <v>13.1356446512252</v>
       </c>
       <c r="C3">
-        <v>5.238687378505033</v>
+        <v>7.115927974503065</v>
       </c>
       <c r="D3">
-        <v>14.99378611203812</v>
+        <v>11.64350317619665</v>
       </c>
       <c r="E3">
-        <v>16.41881176756571</v>
+        <v>12.60876429668369</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.691032338964267</v>
+        <v>2.115983230788965</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.423133020389288</v>
+        <v>5.814600214205557</v>
       </c>
       <c r="K3">
-        <v>12.3581250483019</v>
+        <v>11.4208351992434</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.61290211705236</v>
+        <v>13.50422192654817</v>
       </c>
       <c r="O3">
-        <v>29.47022467434093</v>
+        <v>19.77657537377419</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.68631091763931</v>
+        <v>12.57517730303831</v>
       </c>
       <c r="C4">
-        <v>5.135544169415604</v>
+        <v>6.796155162358848</v>
       </c>
       <c r="D4">
-        <v>14.96043446935483</v>
+        <v>11.33073992031385</v>
       </c>
       <c r="E4">
-        <v>16.38601898433948</v>
+        <v>12.27726157154788</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.692482708844998</v>
+        <v>2.119766801914626</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.429560351096331</v>
+        <v>5.762349816267346</v>
       </c>
       <c r="K4">
-        <v>12.27144249917762</v>
+        <v>10.89238038038938</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.65461200133004</v>
+        <v>13.64494094626745</v>
       </c>
       <c r="O4">
-        <v>29.51190205620972</v>
+        <v>19.7017054069823</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.63228010592196</v>
+        <v>12.34073499299523</v>
       </c>
       <c r="C5">
-        <v>5.093157151883576</v>
+        <v>6.661598292897339</v>
       </c>
       <c r="D5">
-        <v>14.9476833672066</v>
+        <v>11.20270370306961</v>
       </c>
       <c r="E5">
-        <v>16.37358143771291</v>
+        <v>12.14171810014612</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.693092175999174</v>
+        <v>2.12133707353485</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.432536147212476</v>
+        <v>5.741711662892058</v>
       </c>
       <c r="K5">
-        <v>12.2365969266192</v>
+        <v>10.66987287671136</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.67207518612818</v>
+        <v>13.7030540051143</v>
       </c>
       <c r="O5">
-        <v>29.53035192033441</v>
+        <v>19.67496271097383</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.62333168775105</v>
+        <v>12.30144526512034</v>
       </c>
       <c r="C6">
-        <v>5.086099417470838</v>
+        <v>6.638998366517258</v>
       </c>
       <c r="D6">
-        <v>14.9456170642981</v>
+        <v>11.18141388642706</v>
       </c>
       <c r="E6">
-        <v>16.37157236794157</v>
+        <v>12.11918978459537</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.693194492429137</v>
+        <v>2.121599555551553</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.433051817594038</v>
+        <v>5.738324349074266</v>
       </c>
       <c r="K6">
-        <v>12.2308408625739</v>
+        <v>10.63249219384929</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.67500312358938</v>
+        <v>13.7127508093394</v>
       </c>
       <c r="O6">
-        <v>29.53350396130492</v>
+        <v>19.67074609396902</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.68558072066952</v>
+        <v>12.5720398210879</v>
       </c>
       <c r="C7">
-        <v>5.134973869593671</v>
+        <v>6.794357693961683</v>
       </c>
       <c r="D7">
-        <v>14.96025908991257</v>
+        <v>11.32901528393497</v>
       </c>
       <c r="E7">
-        <v>16.38584748684674</v>
+        <v>12.27543515425873</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.692490853631954</v>
+        <v>2.119787863003198</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.429599039666412</v>
+        <v>5.762068828138299</v>
       </c>
       <c r="K7">
-        <v>12.27097057187835</v>
+        <v>10.88940860180189</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.65484562708847</v>
+        <v>13.64572153261455</v>
       </c>
       <c r="O7">
-        <v>29.51214494573246</v>
+        <v>19.70132965135935</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.96315402824819</v>
+        <v>13.75703507637544</v>
       </c>
       <c r="C8">
-        <v>5.347345103725434</v>
+        <v>7.442681457388227</v>
       </c>
       <c r="D8">
-        <v>15.03221830937626</v>
+        <v>11.97474276959571</v>
       </c>
       <c r="E8">
-        <v>16.45694236902307</v>
+        <v>12.96041651841119</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.689547485881892</v>
+        <v>2.112040814283661</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.417492955882162</v>
+        <v>5.872579615446375</v>
       </c>
       <c r="K8">
-        <v>12.45214786814057</v>
+        <v>11.96039705875292</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.56998310301365</v>
+        <v>13.35661758431632</v>
       </c>
       <c r="O8">
-        <v>29.43077009161536</v>
+        <v>19.86968077207606</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.5129861641098</v>
+        <v>15.99559337904065</v>
       </c>
       <c r="C9">
-        <v>5.747753224178631</v>
+        <v>8.581484512363843</v>
       </c>
       <c r="D9">
-        <v>15.19901955894092</v>
+        <v>13.21008197943415</v>
       </c>
       <c r="E9">
-        <v>16.62479213252428</v>
+        <v>14.27614294535617</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.684352447365993</v>
+        <v>2.097683903902463</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.404990297428686</v>
+        <v>6.109540943991831</v>
       </c>
       <c r="K9">
-        <v>12.81952739221019</v>
+        <v>13.83819844241357</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.41816941724725</v>
+        <v>12.81190646461256</v>
       </c>
       <c r="O9">
-        <v>29.31765779476827</v>
+        <v>20.32742683667231</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.91606944158619</v>
+        <v>17.48159347257541</v>
       </c>
       <c r="C10">
-        <v>6.028861550109064</v>
+        <v>9.338977146233802</v>
       </c>
       <c r="D10">
-        <v>15.33650175827753</v>
+        <v>14.09128876629426</v>
       </c>
       <c r="E10">
-        <v>16.76474044703171</v>
+        <v>15.21804671917277</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.680883509484763</v>
+        <v>2.087589122876915</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.402639090406312</v>
+        <v>6.295648065776034</v>
       </c>
       <c r="K10">
-        <v>13.09442544838378</v>
+        <v>15.08543795679837</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.31544416813565</v>
+        <v>12.42345123039153</v>
       </c>
       <c r="O10">
-        <v>29.26302588563649</v>
+        <v>20.74801639444876</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.09839038665995</v>
+        <v>18.12409480118164</v>
       </c>
       <c r="C11">
-        <v>6.153311395499269</v>
+        <v>9.666811983670959</v>
       </c>
       <c r="D11">
-        <v>15.40211415186125</v>
+        <v>14.48529569764807</v>
       </c>
       <c r="E11">
-        <v>16.83184650885634</v>
+        <v>15.63995184743214</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.679380117630209</v>
+        <v>2.083081842615245</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.403048445766492</v>
+        <v>6.38285594006236</v>
       </c>
       <c r="K11">
-        <v>13.2200580795825</v>
+        <v>15.62485830152024</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.27060626156308</v>
+        <v>12.24886384663019</v>
       </c>
       <c r="O11">
-        <v>29.2443801361135</v>
+        <v>20.95894757028701</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.16721208341321</v>
+        <v>18.36265841137773</v>
       </c>
       <c r="C12">
-        <v>6.199901307682707</v>
+        <v>9.788584555909917</v>
       </c>
       <c r="D12">
-        <v>15.42738544734517</v>
+        <v>14.6334421022643</v>
       </c>
       <c r="E12">
-        <v>16.85773704987025</v>
+        <v>15.79869987806696</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.678821494189046</v>
+        <v>2.081386072689198</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.403415523662655</v>
+        <v>6.416240866428291</v>
       </c>
       <c r="K12">
-        <v>13.26767328403185</v>
+        <v>15.82516958303898</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.25389802933725</v>
+        <v>12.18302126160353</v>
       </c>
       <c r="O12">
-        <v>29.23821346537879</v>
+        <v>21.04174074348202</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.15240092220057</v>
+        <v>18.31148889481729</v>
       </c>
       <c r="C13">
-        <v>6.189891845677827</v>
+        <v>9.762463483614827</v>
       </c>
       <c r="D13">
-        <v>15.42192417370581</v>
+        <v>14.60158395206396</v>
       </c>
       <c r="E13">
-        <v>16.85214002394497</v>
+        <v>15.7645568716916</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.678941329695399</v>
+        <v>2.081750815657339</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.403327045875015</v>
+        <v>6.409034824669494</v>
       </c>
       <c r="K13">
-        <v>13.25741735086508</v>
+        <v>15.78220381550926</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.25748441634317</v>
+        <v>12.19719022132399</v>
       </c>
       <c r="O13">
-        <v>29.2395017829113</v>
+        <v>21.02377841029383</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.10405716958712</v>
+        <v>18.14381606257175</v>
       </c>
       <c r="C14">
-        <v>6.157155362434084</v>
+        <v>9.676877584003741</v>
       </c>
       <c r="D14">
-        <v>15.40418480885507</v>
+        <v>14.49750526901549</v>
       </c>
       <c r="E14">
-        <v>16.83396703619144</v>
+        <v>15.65303289325568</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.679333945648304</v>
+        <v>2.082942116364246</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.40307439919853</v>
+        <v>6.385595322565892</v>
       </c>
       <c r="K14">
-        <v>13.22397483360215</v>
+        <v>15.64141692131772</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.26922624265888</v>
+        <v>12.24344173830435</v>
       </c>
       <c r="O14">
-        <v>29.24385487413901</v>
+        <v>20.96569997028521</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.07441466488782</v>
+        <v>18.04049700511875</v>
       </c>
       <c r="C15">
-        <v>6.137032230558239</v>
+        <v>9.624146104641728</v>
       </c>
       <c r="D15">
-        <v>15.39337382623182</v>
+        <v>14.43361490964394</v>
       </c>
       <c r="E15">
-        <v>16.82289743400545</v>
+        <v>15.58458682483546</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.679575823263161</v>
+        <v>2.083673223923195</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.402947243285418</v>
+        <v>6.371284865313884</v>
       </c>
       <c r="K15">
-        <v>13.20349439528282</v>
+        <v>15.55466774435791</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.27645369525113</v>
+        <v>12.27180619083727</v>
       </c>
       <c r="O15">
-        <v>29.24663774323857</v>
+        <v>20.93050818125984</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.90412735348505</v>
+        <v>17.43893719501376</v>
       </c>
       <c r="C16">
-        <v>6.020655649409236</v>
+        <v>9.317218401142616</v>
       </c>
       <c r="D16">
-        <v>15.33227425491362</v>
+        <v>14.06539509257031</v>
       </c>
       <c r="E16">
-        <v>16.76042282629344</v>
+        <v>15.19033522096774</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.680983256980906</v>
+        <v>2.087885294592935</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.402642048358176</v>
+        <v>6.289999611971357</v>
       </c>
       <c r="K16">
-        <v>13.08622307975158</v>
+        <v>15.04962845189385</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.31841240597484</v>
+        <v>12.43490065983965</v>
       </c>
       <c r="O16">
-        <v>29.26436946365145</v>
+        <v>20.73463454472106</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.79934411755806</v>
+        <v>17.06137676581648</v>
       </c>
       <c r="C17">
-        <v>5.94835193758567</v>
+        <v>9.124663141060775</v>
       </c>
       <c r="D17">
-        <v>15.29556685987328</v>
+        <v>13.83769178198432</v>
       </c>
       <c r="E17">
-        <v>16.72296726121249</v>
+        <v>14.94673232752348</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.681865750840576</v>
+        <v>2.090490201811681</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.402833209819777</v>
+        <v>6.240782030198424</v>
       </c>
       <c r="K17">
-        <v>13.01439901589517</v>
+        <v>14.73268775385371</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.34463652505795</v>
+        <v>12.53547293954752</v>
       </c>
       <c r="O17">
-        <v>29.27683818079619</v>
+        <v>20.61956460740263</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.73898129862018</v>
+        <v>16.84105708087165</v>
       </c>
       <c r="C18">
-        <v>5.906444426847563</v>
+        <v>9.012331165618098</v>
       </c>
       <c r="D18">
-        <v>15.27474382611529</v>
+        <v>13.70608012639052</v>
       </c>
       <c r="E18">
-        <v>16.70174889283334</v>
+        <v>14.80600279785407</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.682380367234198</v>
+        <v>2.091996540345713</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.403082406803771</v>
+        <v>6.212713328161689</v>
       </c>
       <c r="K18">
-        <v>12.97314482986403</v>
+        <v>14.54775647247634</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.35989813041802</v>
+        <v>12.59352149514066</v>
       </c>
       <c r="O18">
-        <v>29.28459397720859</v>
+        <v>20.55521881072082</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.7185294512712</v>
+        <v>16.7659161182196</v>
       </c>
       <c r="C19">
-        <v>5.892201652620644</v>
+        <v>8.974025158109791</v>
       </c>
       <c r="D19">
-        <v>15.26774381200776</v>
+        <v>13.66141073559205</v>
       </c>
       <c r="E19">
-        <v>16.69462102914822</v>
+        <v>14.75825106348207</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.682555816484606</v>
+        <v>2.092507979972467</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.403190713173052</v>
+        <v>6.203251135410467</v>
       </c>
       <c r="K19">
-        <v>12.95918798898168</v>
+        <v>14.4846873944559</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.36509608823854</v>
+        <v>12.61321148791366</v>
       </c>
       <c r="O19">
-        <v>29.28732022634934</v>
+        <v>20.53374528105877</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.81050873965326</v>
+        <v>17.10189489662703</v>
       </c>
       <c r="C20">
-        <v>5.956082274604518</v>
+        <v>9.145324165891683</v>
       </c>
       <c r="D20">
-        <v>15.29944451733073</v>
+        <v>13.86199827488545</v>
       </c>
       <c r="E20">
-        <v>16.7269209396035</v>
+        <v>14.97272858320822</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.681771080762958</v>
+        <v>2.090212078490524</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.402798453009527</v>
+        <v>6.245996532990321</v>
       </c>
       <c r="K20">
-        <v>13.02203920936089</v>
+        <v>14.76669892991319</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.34182649000482</v>
+        <v>12.52474618883476</v>
       </c>
       <c r="O20">
-        <v>29.27545039781536</v>
+        <v>20.63162290264287</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.11826338955882</v>
+        <v>18.1931935762134</v>
       </c>
       <c r="C21">
-        <v>6.166785747829598</v>
+        <v>9.70208027800345</v>
       </c>
       <c r="D21">
-        <v>15.4093838813155</v>
+        <v>14.52810479726824</v>
       </c>
       <c r="E21">
-        <v>16.83929201795972</v>
+        <v>15.68581830044405</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.679218335457145</v>
+        <v>2.082591912613781</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.403142857571796</v>
+        <v>6.392470302338029</v>
       </c>
       <c r="K21">
-        <v>13.23379693849243</v>
+        <v>15.68287626163856</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.26577004076125</v>
+        <v>12.22984951374718</v>
       </c>
       <c r="O21">
-        <v>29.24255199011388</v>
+        <v>20.98267903890067</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.31809075410891</v>
+        <v>18.87884469085232</v>
       </c>
       <c r="C22">
-        <v>6.301348195969967</v>
+        <v>10.05215047586463</v>
       </c>
       <c r="D22">
-        <v>15.48370654354338</v>
+        <v>14.95727393240858</v>
       </c>
       <c r="E22">
-        <v>16.91551653402834</v>
+        <v>16.14590969087585</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.677612185409945</v>
+        <v>2.077675431304667</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.404603671214721</v>
+        <v>6.490303559198956</v>
       </c>
       <c r="K22">
-        <v>13.37241179079348</v>
+        <v>16.25862839639023</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.21764127464197</v>
+        <v>12.03867272639459</v>
       </c>
       <c r="O22">
-        <v>29.22626278561224</v>
+        <v>21.22916838416676</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.21158088884889</v>
+        <v>18.51539611486984</v>
       </c>
       <c r="C23">
-        <v>6.229830648636881</v>
+        <v>9.866560953400372</v>
       </c>
       <c r="D23">
-        <v>15.44381862672211</v>
+        <v>14.7288004905974</v>
       </c>
       <c r="E23">
-        <v>16.87458492886904</v>
+        <v>15.90091361241905</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.678463743323444</v>
+        <v>2.080294027409312</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.403711162007014</v>
+        <v>6.437896822113548</v>
       </c>
       <c r="K23">
-        <v>13.29842426939172</v>
+        <v>15.95342283651368</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.24318446287247</v>
+        <v>12.14057725118028</v>
       </c>
       <c r="O23">
-        <v>29.23447933070577</v>
+        <v>21.09601964300504</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.80546158725133</v>
+        <v>17.08358679463073</v>
       </c>
       <c r="C24">
-        <v>5.952588442232189</v>
+        <v>9.135988394558108</v>
       </c>
       <c r="D24">
-        <v>15.29769055333078</v>
+        <v>13.8510114904944</v>
       </c>
       <c r="E24">
-        <v>16.72513249816641</v>
+        <v>14.96097778506905</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.681813858488905</v>
+        <v>2.090337790725412</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.402813732625894</v>
+        <v>6.243638348378381</v>
       </c>
       <c r="K24">
-        <v>13.01858495493079</v>
+        <v>14.75133094754301</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.34309633042793</v>
+        <v>12.52959503934627</v>
       </c>
       <c r="O24">
-        <v>29.27607598495673</v>
+        <v>20.62616571888305</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.3640960519329</v>
+        <v>15.41817132148615</v>
       </c>
       <c r="C25">
-        <v>5.641509347252727</v>
+        <v>8.28744597024717</v>
       </c>
       <c r="D25">
-        <v>15.15121646178993</v>
+        <v>12.88006455916388</v>
       </c>
       <c r="E25">
-        <v>16.57640901111815</v>
+        <v>13.92406307663089</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.685696480113529</v>
+        <v>2.101483976872324</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.407170885203021</v>
+        <v>6.043302702037077</v>
       </c>
       <c r="K25">
-        <v>12.71909287869947</v>
+        <v>13.35369635047071</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.45768511723422</v>
+        <v>12.95706708302871</v>
       </c>
       <c r="O25">
-        <v>29.3432671260963</v>
+        <v>20.18924294144524</v>
       </c>
     </row>
   </sheetData>
